--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1818CEAF-7A33-455C-B39B-FAC522D46EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8721E7C-3BA8-4941-8F6F-B6F6037A05B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{627E1C13-5E96-48A7-875B-7BDE2A969DAF}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{627E1C13-5E96-48A7-875B-7BDE2A969DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>codLibro</t>
   </si>
@@ -91,16 +91,174 @@
   </si>
   <si>
     <t>Ramalho</t>
+  </si>
+  <si>
+    <t>Ejercicio 1</t>
+  </si>
+  <si>
+    <t>Ejercicio 2</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>PACIENTE</t>
+  </si>
+  <si>
+    <t>LOCALIDAD</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>FECHA_ATENCION</t>
+  </si>
+  <si>
+    <t>ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>TELEFONOS</t>
+  </si>
+  <si>
+    <t>CORREOS</t>
+  </si>
+  <si>
+    <t>14309024-8</t>
+  </si>
+  <si>
+    <t>Elsa Alvarado</t>
+  </si>
+  <si>
+    <t>Vitacura</t>
+  </si>
+  <si>
+    <t>Metropolitana de Santiago</t>
+  </si>
+  <si>
+    <t>Dolor de muelas</t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>569-1577-7185</t>
+  </si>
+  <si>
+    <t>scelerisque@non.net</t>
+  </si>
+  <si>
+    <t>19404922-6</t>
+  </si>
+  <si>
+    <t>Rosita Garcia</t>
+  </si>
+  <si>
+    <t>Vallenar</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Soplo en el corazon</t>
+  </si>
+  <si>
+    <t>569-8432-3819</t>
+  </si>
+  <si>
+    <t>oci@euodio.edu</t>
+  </si>
+  <si>
+    <t>21654462-5</t>
+  </si>
+  <si>
+    <t>Priscila Pino</t>
+  </si>
+  <si>
+    <t>Villa Alemana</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>MOTIVO_CONSULTA</t>
+  </si>
+  <si>
+    <t>Odontologia</t>
+  </si>
+  <si>
+    <t>Cardiologia</t>
+  </si>
+  <si>
+    <t>Resfriado Comun</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>569-8538-2323</t>
+  </si>
+  <si>
+    <t>elementum@Phasellus.com</t>
+  </si>
+  <si>
+    <t>22240128-3</t>
+  </si>
+  <si>
+    <t>Victor Jimenez</t>
+  </si>
+  <si>
+    <t>Dolor de Estomago</t>
+  </si>
+  <si>
+    <t>569-0172-4712</t>
+  </si>
+  <si>
+    <t>sollicitudin@imper.com</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Labio leporino</t>
+  </si>
+  <si>
+    <t>Cirugia Plastica</t>
+  </si>
+  <si>
+    <t>Quirurgica</t>
+  </si>
+  <si>
+    <t>18727767-1</t>
+  </si>
+  <si>
+    <t>Allison Rojas</t>
+  </si>
+  <si>
+    <t>Nuñoa</t>
+  </si>
+  <si>
+    <t>Rotura de dedos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,15 +287,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,140 +611,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7263179-8C50-43D0-BCB2-6ADBFF079A7F}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>41744</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>41746</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>41745</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>41749</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>41747</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1004</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1005</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1005</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1006</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1007</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43781</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43819</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43949</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40463</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40463</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43755</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J22" r:id="rId1" xr:uid="{BEFC3DEB-EE01-4F21-AB88-F8E165093951}"/>
+    <hyperlink ref="J23" r:id="rId2" xr:uid="{C594ECE1-F4A8-4617-8761-8F4D9A96FD4F}"/>
+    <hyperlink ref="J24" r:id="rId3" xr:uid="{EFEC8FB4-05A3-4FBC-8F90-EC6ADBBEBC6E}"/>
+    <hyperlink ref="J25" r:id="rId4" xr:uid="{85AF6CF8-6C3C-4CC8-8268-636710F94381}"/>
+    <hyperlink ref="J26" r:id="rId5" xr:uid="{8DE3B389-C292-4D90-9E9C-BB77D3A5350C}"/>
+    <hyperlink ref="J27" r:id="rId6" xr:uid="{BF118AAB-AE6F-420F-B741-0F64573184C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8721E7C-3BA8-4941-8F6F-B6F6037A05B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30065045-4462-4E0B-86E6-76B47468A8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{627E1C13-5E96-48A7-875B-7BDE2A969DAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{627E1C13-5E96-48A7-875B-7BDE2A969DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>codLibro</t>
   </si>
@@ -241,6 +241,105 @@
   </si>
   <si>
     <t>Rotura de dedos</t>
+  </si>
+  <si>
+    <t>8996233-1</t>
+  </si>
+  <si>
+    <t>Dennis Leiva</t>
+  </si>
+  <si>
+    <t>San Pedro de la Paz</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>Evaluacion</t>
+  </si>
+  <si>
+    <t>Cirugia General</t>
+  </si>
+  <si>
+    <t>569-9184-5311</t>
+  </si>
+  <si>
+    <t>tellus@sagittis.net</t>
+  </si>
+  <si>
+    <t>Analisis Clinico</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>569-5537-0209</t>
+  </si>
+  <si>
+    <t>lorem.ipsum@enulla.org</t>
+  </si>
+  <si>
+    <t>6683581-2</t>
+  </si>
+  <si>
+    <t>Jasmin Hernandez</t>
+  </si>
+  <si>
+    <t>Quillota</t>
+  </si>
+  <si>
+    <t>Rotura de pie izquierdo</t>
+  </si>
+  <si>
+    <t>Radiologia</t>
+  </si>
+  <si>
+    <t>569-5906-0159</t>
+  </si>
+  <si>
+    <t>quam@nislar.org</t>
+  </si>
+  <si>
+    <t>22489508-9</t>
+  </si>
+  <si>
+    <t>Catalina Navarro</t>
+  </si>
+  <si>
+    <t>Quilicura</t>
+  </si>
+  <si>
+    <t>Muela fracturada</t>
+  </si>
+  <si>
+    <t>569-9224-2527</t>
+  </si>
+  <si>
+    <t>pharetra@tellusidnunc.ccom</t>
+  </si>
+  <si>
+    <t>25515579-5</t>
+  </si>
+  <si>
+    <t>Gaston Saavedra</t>
+  </si>
+  <si>
+    <t>Rengo</t>
+  </si>
+  <si>
+    <t>O'Higgings</t>
+  </si>
+  <si>
+    <t>Paranoia</t>
+  </si>
+  <si>
+    <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>569-0082-5544</t>
+  </si>
+  <si>
+    <t>Suspendisse@molis.com</t>
   </si>
 </sst>
 </file>
@@ -611,19 +710,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7263179-8C50-43D0-BCB2-6ADBFF079A7F}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
@@ -1141,6 +1240,226 @@
       <c r="F28" t="s">
         <v>71</v>
       </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43851</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43763</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43556</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1150,6 +1469,11 @@
     <hyperlink ref="J25" r:id="rId4" xr:uid="{85AF6CF8-6C3C-4CC8-8268-636710F94381}"/>
     <hyperlink ref="J26" r:id="rId5" xr:uid="{8DE3B389-C292-4D90-9E9C-BB77D3A5350C}"/>
     <hyperlink ref="J27" r:id="rId6" xr:uid="{BF118AAB-AE6F-420F-B741-0F64573184C3}"/>
+    <hyperlink ref="J28" r:id="rId7" xr:uid="{DD2C14D7-EE51-4B0B-A5EB-21C99755F1A2}"/>
+    <hyperlink ref="J29" r:id="rId8" xr:uid="{DB5EF6CD-0453-4DF9-A849-A51EE17D4752}"/>
+    <hyperlink ref="J30" r:id="rId9" xr:uid="{C62EBC00-058C-4B5E-9AE1-CAE60E12AFD9}"/>
+    <hyperlink ref="J31" r:id="rId10" xr:uid="{45F75F65-2CEA-4C7A-80E5-2C6D2C1656B9}"/>
+    <hyperlink ref="J32" r:id="rId11" xr:uid="{C0D3B28A-7B69-4068-8EFE-D28E7EEA4C84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
+++ b/Bases de datos/1ªEvaluación/Ejercicios(FN)/Practica3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anxoc\OneDrive\Escritorio\DAM 23-24\DAM-23-24\Bases de datos\1ªEvaluación\Ejercicios(FN)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30065045-4462-4E0B-86E6-76B47468A8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989190F1-4FB8-4908-B096-A8CBE6F3E36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{627E1C13-5E96-48A7-875B-7BDE2A969DAF}"/>
   </bookViews>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7263179-8C50-43D0-BCB2-6ADBFF079A7F}">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
